--- a/data/trans_orig/P19C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>147233</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130781</v>
+        <v>130255</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164684</v>
+        <v>166283</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4096633843994524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3638857609019276</v>
+        <v>0.3624221779761903</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4582173741253984</v>
+        <v>0.4626682305364817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>186</v>
@@ -765,19 +765,19 @@
         <v>179754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>163095</v>
+        <v>162956</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>198904</v>
+        <v>197837</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4777477597467673</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4334732832167009</v>
+        <v>0.4331039611254276</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5286458646746899</v>
+        <v>0.5258088244270781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>333</v>
@@ -786,19 +786,19 @@
         <v>326987</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>302341</v>
+        <v>301629</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>352732</v>
+        <v>355162</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4444853416253046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4109825678859384</v>
+        <v>0.4100152911504522</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.479480840996474</v>
+        <v>0.4827844762017912</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>212168</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>194717</v>
+        <v>193118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>228620</v>
+        <v>229146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5903366156005476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5417826258746016</v>
+        <v>0.5373317694635182</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6361142390980724</v>
+        <v>0.6375778220238097</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -836,19 +836,19 @@
         <v>196498</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177348</v>
+        <v>178415</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>213157</v>
+        <v>213296</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5222522402532328</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.47135413532531</v>
+        <v>0.4741911755729218</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5665267167832991</v>
+        <v>0.5668960388745723</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>424</v>
@@ -857,19 +857,19 @@
         <v>408666</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382921</v>
+        <v>380491</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>433312</v>
+        <v>434024</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5555146583746955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5205191590035262</v>
+        <v>0.5172155237982089</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5890174321140615</v>
+        <v>0.5899847088495479</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>189218</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166728</v>
+        <v>167070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>215392</v>
+        <v>211800</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3277724634224088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2888141059151277</v>
+        <v>0.2894065036365859</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3731114545023765</v>
+        <v>0.3668897740413119</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -982,19 +982,19 @@
         <v>211050</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>190762</v>
+        <v>188105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>236152</v>
+        <v>234745</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3853321790088745</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3482920963980998</v>
+        <v>0.3434397588588158</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4311648194403367</v>
+        <v>0.4285959671743103</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>378</v>
@@ -1003,19 +1003,19 @@
         <v>400268</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>367726</v>
+        <v>367993</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>432329</v>
+        <v>434339</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3557956769967766</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3268699198213513</v>
+        <v>0.3271072769736499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3842944905830716</v>
+        <v>0.3860817833838714</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>388067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>361893</v>
+        <v>365485</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>410557</v>
+        <v>410215</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6722275365775912</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6268885454976236</v>
+        <v>0.633110225958688</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7111858940848724</v>
+        <v>0.7105934963634141</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>320</v>
@@ -1053,19 +1053,19 @@
         <v>336658</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>311556</v>
+        <v>312963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>356946</v>
+        <v>359603</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6146678209911255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5688351805596631</v>
+        <v>0.5714040328256896</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6517079036019</v>
+        <v>0.6565602411411842</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>696</v>
@@ -1074,19 +1074,19 @@
         <v>724725</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692664</v>
+        <v>690654</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>757267</v>
+        <v>757000</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6442043230032234</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6157055094169285</v>
+        <v>0.6139182166161287</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6731300801786488</v>
+        <v>0.6728927230263501</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>150895</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130240</v>
+        <v>130055</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172578</v>
+        <v>173775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3000294898406235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2589604422998548</v>
+        <v>0.2585921456798398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3431436147353813</v>
+        <v>0.3455237867281785</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>179</v>
@@ -1199,19 +1199,19 @@
         <v>189757</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>168646</v>
+        <v>166356</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>213796</v>
+        <v>213550</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3143936001201378</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2794159741423132</v>
+        <v>0.2756228032594462</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3542220555299711</v>
+        <v>0.3538144298207815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>328</v>
@@ -1220,19 +1220,19 @@
         <v>340651</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>307103</v>
+        <v>311567</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>369277</v>
+        <v>373234</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3078647271731768</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2775455064517732</v>
+        <v>0.2815791643000787</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3337349558003156</v>
+        <v>0.3373116988998056</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>352038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>330355</v>
+        <v>329158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>372693</v>
+        <v>372878</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6999705101593765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6568563852646186</v>
+        <v>0.6544762132718215</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7410395577001451</v>
+        <v>0.7414078543201602</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>396</v>
@@ -1270,19 +1270,19 @@
         <v>413808</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>389769</v>
+        <v>390015</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>434919</v>
+        <v>437209</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6856063998798622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6457779444700289</v>
+        <v>0.6461855701792185</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7205840258576868</v>
+        <v>0.7243771967405538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>733</v>
@@ -1291,19 +1291,19 @@
         <v>765846</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>737220</v>
+        <v>733263</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>799394</v>
+        <v>794930</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6921352728268232</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6662650441996844</v>
+        <v>0.6626883011001944</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7224544935482268</v>
+        <v>0.7184208356999213</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>104459</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87870</v>
+        <v>88685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123680</v>
+        <v>123393</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.258083852478208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2170992237635397</v>
+        <v>0.21911087424228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.305572927115394</v>
+        <v>0.3048648030194132</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -1416,19 +1416,19 @@
         <v>127531</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106992</v>
+        <v>109234</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143892</v>
+        <v>147743</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2903810943390921</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2436156511801016</v>
+        <v>0.2487193267496387</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3276331631116598</v>
+        <v>0.3364024820777116</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>224</v>
@@ -1437,19 +1437,19 @@
         <v>231990</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>205000</v>
+        <v>205905</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>260997</v>
+        <v>256993</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2748914244962942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2429104960255711</v>
+        <v>0.2439828142128767</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3092632817930592</v>
+        <v>0.304518045937708</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>300289</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>281068</v>
+        <v>281355</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316878</v>
+        <v>316063</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.741916147521792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6944270728846059</v>
+        <v>0.6951351969805868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7829007762364606</v>
+        <v>0.7808891257577197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>304</v>
@@ -1487,19 +1487,19 @@
         <v>311654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>295293</v>
+        <v>291442</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>332193</v>
+        <v>329951</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7096189056609079</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6723668368883402</v>
+        <v>0.6635975179222884</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7563843488198985</v>
+        <v>0.7512806732503612</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>585</v>
@@ -1508,19 +1508,19 @@
         <v>611943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>582936</v>
+        <v>586940</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>638933</v>
+        <v>638028</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7251085755037058</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6907367182069407</v>
+        <v>0.695481954062292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.757089503974429</v>
+        <v>0.7560171857871236</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>71752</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58620</v>
+        <v>58159</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88073</v>
+        <v>88220</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2634574079866175</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2152402182755265</v>
+        <v>0.2135443195650433</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.32338192764658</v>
+        <v>0.3239226793278179</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -1633,19 +1633,19 @@
         <v>68213</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55358</v>
+        <v>54917</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>83654</v>
+        <v>84396</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2137791834464029</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1734902000245894</v>
+        <v>0.1721106617969773</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2621700116464734</v>
+        <v>0.264497694379058</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -1654,19 +1654,19 @@
         <v>139965</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120170</v>
+        <v>118497</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>160623</v>
+        <v>160178</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2366556253105967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2031853908639381</v>
+        <v>0.2003565312760282</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2715834544662757</v>
+        <v>0.270831900064745</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>200597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184276</v>
+        <v>184129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213729</v>
+        <v>214190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7365425920133825</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.67661807235342</v>
+        <v>0.676077320672182</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7847597817244735</v>
+        <v>0.7864556804349565</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>245</v>
@@ -1704,19 +1704,19 @@
         <v>250869</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>235428</v>
+        <v>234686</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>263724</v>
+        <v>264165</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7862208165535971</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7378299883535266</v>
+        <v>0.735502305620942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8265097999754106</v>
+        <v>0.8278893382030228</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>452</v>
@@ -1725,19 +1725,19 @@
         <v>451466</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>430808</v>
+        <v>431253</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>471261</v>
+        <v>472934</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7633443746894033</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7284165455337245</v>
+        <v>0.7291680999352556</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7968146091360622</v>
+        <v>0.7996434687239723</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>46162</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34508</v>
+        <v>34650</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58594</v>
+        <v>59065</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2169628212063162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1621877480697805</v>
+        <v>0.1628574279223325</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2753916877850225</v>
+        <v>0.2776082169505015</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -1850,19 +1850,19 @@
         <v>49904</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39206</v>
+        <v>37742</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63068</v>
+        <v>61220</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.202854650520488</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1593695982523539</v>
+        <v>0.1534200263507964</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2563668126889268</v>
+        <v>0.2488544820920755</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1871,19 +1871,19 @@
         <v>96066</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80754</v>
+        <v>80511</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113503</v>
+        <v>113798</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.209397610476922</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1760217585492019</v>
+        <v>0.1754920415358006</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2474052523660738</v>
+        <v>0.2480483157947214</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>166603</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154171</v>
+        <v>153700</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>178257</v>
+        <v>178115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7830371787936838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7246083122149776</v>
+        <v>0.7223917830494978</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8378122519302196</v>
+        <v>0.8371425720776674</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -1921,19 +1921,19 @@
         <v>196103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>182939</v>
+        <v>184787</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>206801</v>
+        <v>208265</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.797145349479512</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7436331873110732</v>
+        <v>0.7511455179079245</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.840630401747646</v>
+        <v>0.8465799736492036</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>384</v>
@@ -1942,19 +1942,19 @@
         <v>362706</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>345269</v>
+        <v>344974</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>378018</v>
+        <v>378261</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.790602389523078</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7525947476339263</v>
+        <v>0.7519516842052785</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8239782414507981</v>
+        <v>0.8245079584641993</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>22611</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15248</v>
+        <v>14818</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32690</v>
+        <v>32364</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1783725120595217</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1202854652899127</v>
+        <v>0.1168939940771362</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2578816408045577</v>
+        <v>0.2553056554092127</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -2067,19 +2067,19 @@
         <v>33857</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24047</v>
+        <v>23128</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47694</v>
+        <v>47299</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1626091090654755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1154942555340255</v>
+        <v>0.1110814508935914</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2290676331399003</v>
+        <v>0.2271729299479763</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -2088,19 +2088,19 @@
         <v>56468</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44097</v>
+        <v>44175</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73834</v>
+        <v>72290</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1685744796201752</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1316445664060859</v>
+        <v>0.1318772567378422</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2204188981012606</v>
+        <v>0.2158103566796216</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>104153</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>94074</v>
+        <v>94400</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>111516</v>
+        <v>111946</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8216274879404782</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7421183591954423</v>
+        <v>0.7446943445907872</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8797145347100872</v>
+        <v>0.883106005922864</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>153</v>
@@ -2138,19 +2138,19 @@
         <v>174351</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>160514</v>
+        <v>160909</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>184161</v>
+        <v>185080</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8373908909345246</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7709323668600995</v>
+        <v>0.7728270700520237</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8845057444659745</v>
+        <v>0.8889185491064087</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>260</v>
@@ -2159,19 +2159,19 @@
         <v>278504</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>261138</v>
+        <v>262682</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>290875</v>
+        <v>290797</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8314255203798248</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7795811018987394</v>
+        <v>0.7841896433203785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8683554335939141</v>
+        <v>0.8681227432621579</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>732331</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>685686</v>
+        <v>687084</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>781512</v>
+        <v>778086</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2981505877052048</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2791603656560006</v>
+        <v>0.2797294812321364</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3181734517913822</v>
+        <v>0.3167788364700802</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>839</v>
@@ -2284,19 +2284,19 @@
         <v>860064</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>812745</v>
+        <v>808493</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>912029</v>
+        <v>905981</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3138913274493892</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2966215097468581</v>
+        <v>0.2950697197079569</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3328566081873888</v>
+        <v>0.330649202192282</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1552</v>
@@ -2305,19 +2305,19 @@
         <v>1592395</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1525362</v>
+        <v>1528448</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1663069</v>
+        <v>1657594</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3064507485432453</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2935505156213891</v>
+        <v>0.2941442396808467</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3200516812709652</v>
+        <v>0.3189980000893584</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1723914</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1674733</v>
+        <v>1678159</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1770559</v>
+        <v>1769161</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7018494122947952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6818265482086178</v>
+        <v>0.68322116352992</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7208396343439993</v>
+        <v>0.7202705187678636</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1839</v>
@@ -2355,19 +2355,19 @@
         <v>1879942</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1827977</v>
+        <v>1834025</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1927261</v>
+        <v>1931513</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6861086725506108</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.667143391812611</v>
+        <v>0.6693507978077184</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7033784902531418</v>
+        <v>0.7049302802920434</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3534</v>
@@ -2376,19 +2376,19 @@
         <v>3603857</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3533183</v>
+        <v>3538658</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3670890</v>
+        <v>3667804</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6935492514567546</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6799483187290348</v>
+        <v>0.6810019999106416</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7064494843786109</v>
+        <v>0.7058557603191533</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>170735</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>152417</v>
+        <v>149349</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>190062</v>
+        <v>188421</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4502779101230807</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.401968074195646</v>
+        <v>0.3938771757104684</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5012492242900032</v>
+        <v>0.4969212717025105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>166</v>
@@ -2744,19 +2744,19 @@
         <v>170026</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149994</v>
+        <v>149995</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>188274</v>
+        <v>187752</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4583025043068528</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4043058634892098</v>
+        <v>0.404309145539604</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5074889363215439</v>
+        <v>0.5060818240110934</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>332</v>
@@ -2765,19 +2765,19 @@
         <v>340760</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>313059</v>
+        <v>313829</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>366703</v>
+        <v>369112</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4542464283850295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4173201701182078</v>
+        <v>0.4183459771192468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4888298048497953</v>
+        <v>0.4920398506604284</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>208441</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>189114</v>
+        <v>190755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226759</v>
+        <v>229827</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5497220898769194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4987507757099967</v>
+        <v>0.5030787282974897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5980319258043539</v>
+        <v>0.6061228242895319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>196</v>
@@ -2815,19 +2815,19 @@
         <v>200965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182717</v>
+        <v>183239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220997</v>
+        <v>220996</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5416974956931472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4925110636784562</v>
+        <v>0.4939181759889066</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5956941365107903</v>
+        <v>0.5956908544603959</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>403</v>
@@ -2836,19 +2836,19 @@
         <v>409406</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>383463</v>
+        <v>381054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437107</v>
+        <v>436337</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5457535716149704</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5111701951502047</v>
+        <v>0.5079601493395716</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5826798298817927</v>
+        <v>0.5816540228807532</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>205398</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>182014</v>
+        <v>181847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>229008</v>
+        <v>230528</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3438959432467706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3047448367026226</v>
+        <v>0.3044646238383849</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3834265421715966</v>
+        <v>0.3859712875019919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>212</v>
@@ -2961,19 +2961,19 @@
         <v>229610</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>206183</v>
+        <v>205895</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>253006</v>
+        <v>253740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4101268597927394</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3682825296579559</v>
+        <v>0.3677670689326331</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.451916243634411</v>
+        <v>0.4532268910967074</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>406</v>
@@ -2982,19 +2982,19 @@
         <v>435008</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>402592</v>
+        <v>402646</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>469134</v>
+        <v>468526</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3759406182416116</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3479263608383716</v>
+        <v>0.3479731154771831</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4054335637711027</v>
+        <v>0.4049076360405392</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>391869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368259</v>
+        <v>366739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415253</v>
+        <v>415420</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6561040567532295</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6165734578284034</v>
+        <v>0.6140287124980085</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6952551632973771</v>
+        <v>0.6955353761616152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>311</v>
@@ -3032,19 +3032,19 @@
         <v>330241</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>306845</v>
+        <v>306111</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>353668</v>
+        <v>353956</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5898731402072606</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5480837563655889</v>
+        <v>0.5467731089032926</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6317174703420437</v>
+        <v>0.6322329310673667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -3053,19 +3053,19 @@
         <v>722110</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>687984</v>
+        <v>688592</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>754526</v>
+        <v>754472</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6240593817583884</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5945664362288973</v>
+        <v>0.5950923639594609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6520736391616285</v>
+        <v>0.6520268845228171</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>177807</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153877</v>
+        <v>156735</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199734</v>
+        <v>202795</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3030881917780875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2622965069337753</v>
+        <v>0.2671688637017395</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3404644946262187</v>
+        <v>0.3456821774846706</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>236</v>
@@ -3178,19 +3178,19 @@
         <v>250234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>223405</v>
+        <v>224474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275020</v>
+        <v>275465</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3800311466073693</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3392855456560681</v>
+        <v>0.3409096420010907</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4176740359288964</v>
+        <v>0.4183502472288353</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>406</v>
@@ -3199,19 +3199,19 @@
         <v>428041</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>395645</v>
+        <v>393135</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>463947</v>
+        <v>463664</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3437783125744999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3177597164533599</v>
+        <v>0.3157441212361755</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3726159899043559</v>
+        <v>0.3723889383882311</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>408844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>386917</v>
+        <v>383856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>432774</v>
+        <v>429916</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6969118082219126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6595355053737809</v>
+        <v>0.6543178225153291</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7377034930662238</v>
+        <v>0.7328311362982605</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>384</v>
@@ -3249,19 +3249,19 @@
         <v>408222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>383436</v>
+        <v>382991</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>435051</v>
+        <v>433982</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6199688533926306</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5823259640711036</v>
+        <v>0.5816497527711647</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6607144543439319</v>
+        <v>0.6590903579989094</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>777</v>
@@ -3270,19 +3270,19 @@
         <v>817066</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>781160</v>
+        <v>781443</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>849462</v>
+        <v>851972</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6562216874255001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.627384010095644</v>
+        <v>0.6276110616117689</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6822402835466401</v>
+        <v>0.6842558787638244</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>142362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120589</v>
+        <v>123777</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165281</v>
+        <v>165519</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2622548500298418</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2221450065846391</v>
+        <v>0.2280180114716898</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3044752062966355</v>
+        <v>0.3049133816697745</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -3395,19 +3395,19 @@
         <v>191092</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>166055</v>
+        <v>166968</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>215667</v>
+        <v>217574</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3398516458428992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2953243084369253</v>
+        <v>0.2969474235299057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3835587382627061</v>
+        <v>0.3869496819644396</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>291</v>
@@ -3416,19 +3416,19 @@
         <v>333454</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>300574</v>
+        <v>300659</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>366448</v>
+        <v>370067</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3017357544604338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2719835549006251</v>
+        <v>0.2720604332695782</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3315911975044706</v>
+        <v>0.3348665884613247</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>400477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>377558</v>
+        <v>377320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>422250</v>
+        <v>419062</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7377451499701582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6955247937033644</v>
+        <v>0.6950866183302256</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7778549934153609</v>
+        <v>0.7719819885283102</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>326</v>
@@ -3466,19 +3466,19 @@
         <v>371188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>346613</v>
+        <v>344706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>396225</v>
+        <v>395312</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6601483541571007</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6164412617372934</v>
+        <v>0.6130503180355604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7046756915630747</v>
+        <v>0.7030525764700944</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>684</v>
@@ -3487,19 +3487,19 @@
         <v>771665</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738671</v>
+        <v>735052</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>804545</v>
+        <v>804460</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6982642455395661</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6684088024955296</v>
+        <v>0.6651334115386753</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.728016445099375</v>
+        <v>0.7279395667304218</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>91513</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73714</v>
+        <v>74033</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109014</v>
+        <v>109571</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2532804156862362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2040181746325937</v>
+        <v>0.2049020775900366</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3017183713168975</v>
+        <v>0.3032604649085068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -3612,19 +3612,19 @@
         <v>107970</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90081</v>
+        <v>91378</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>128140</v>
+        <v>127685</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2763385801047036</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2305543666936946</v>
+        <v>0.2338741568495424</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3279634828963992</v>
+        <v>0.3267991538471866</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>181</v>
@@ -3633,19 +3633,19 @@
         <v>199482</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174414</v>
+        <v>175836</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>224292</v>
+        <v>227467</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.265260306578772</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2319257150298205</v>
+        <v>0.2338164456997598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.298251090970352</v>
+        <v>0.3024727634767744</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>269797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>252296</v>
+        <v>251739</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>287596</v>
+        <v>287277</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7467195843137638</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6982816286831024</v>
+        <v>0.6967395350914932</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7959818253674064</v>
+        <v>0.7950979224099635</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>255</v>
@@ -3683,19 +3683,19 @@
         <v>282745</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>262575</v>
+        <v>263030</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>300634</v>
+        <v>299337</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7236614198952964</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6720365171036009</v>
+        <v>0.6732008461528133</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7694456333063059</v>
+        <v>0.7661258431504576</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>505</v>
@@ -3704,19 +3704,19 @@
         <v>552543</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>527733</v>
+        <v>524558</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>577611</v>
+        <v>576189</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7347396934212279</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.701748909029648</v>
+        <v>0.6975272365232256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7680742849701795</v>
+        <v>0.7661835543002399</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>44384</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32587</v>
+        <v>32452</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59253</v>
+        <v>58877</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1690889961682548</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1241456377546554</v>
+        <v>0.1236325849169955</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2257340042150299</v>
+        <v>0.2243015871318006</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -3829,19 +3829,19 @@
         <v>68600</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55390</v>
+        <v>55912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84822</v>
+        <v>84859</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2282178655683361</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1842723437105974</v>
+        <v>0.1860088772678784</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2821862173937071</v>
+        <v>0.2823103750209927</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -3850,19 +3850,19 @@
         <v>112984</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>94583</v>
+        <v>93914</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>134623</v>
+        <v>132888</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2006537937026836</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1679753953732866</v>
+        <v>0.1667864996240022</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2390838694621747</v>
+        <v>0.2360030051955304</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>218106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>203237</v>
+        <v>203613</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229903</v>
+        <v>230038</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8309110038317452</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7742659957849702</v>
+        <v>0.7756984128681995</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8758543622453452</v>
+        <v>0.8763674150830048</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -3900,19 +3900,19 @@
         <v>231989</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>215767</v>
+        <v>215730</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>245199</v>
+        <v>244677</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7717821344316639</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7178137826062928</v>
+        <v>0.7176896249790073</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8157276562894024</v>
+        <v>0.8139911227321216</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>424</v>
@@ -3921,19 +3921,19 @@
         <v>450095</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>428456</v>
+        <v>430191</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>468496</v>
+        <v>469165</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7993462062973163</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7609161305378253</v>
+        <v>0.763996994804469</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8320246046267131</v>
+        <v>0.8332135003759978</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>25570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16691</v>
+        <v>16426</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36702</v>
+        <v>36580</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1382701287458498</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09025699437299477</v>
+        <v>0.08882387585348539</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1984710341692007</v>
+        <v>0.197810852975577</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -4046,19 +4046,19 @@
         <v>59082</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45723</v>
+        <v>46843</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74885</v>
+        <v>76077</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1953692221966853</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.151193328713175</v>
+        <v>0.1548990529913636</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2476237528717759</v>
+        <v>0.2515671282182279</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -4067,19 +4067,19 @@
         <v>84652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67956</v>
+        <v>68943</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>103281</v>
+        <v>101952</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1737023599615611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1394419868358982</v>
+        <v>0.1414692313198201</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2119292305255508</v>
+        <v>0.2092009561458817</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>159356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>148224</v>
+        <v>148346</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>168235</v>
+        <v>168500</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8617298712541502</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8015289658307996</v>
+        <v>0.8021891470244226</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9097430056270054</v>
+        <v>0.9111761241465146</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>219</v>
@@ -4117,19 +4117,19 @@
         <v>243331</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>227528</v>
+        <v>226336</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>256690</v>
+        <v>255570</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8046307778033147</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7523762471282239</v>
+        <v>0.7484328717817722</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.848806671286825</v>
+        <v>0.8451009470086365</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>361</v>
@@ -4138,19 +4138,19 @@
         <v>402687</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>384058</v>
+        <v>385387</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>419383</v>
+        <v>418396</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8262976400384389</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7880707694744487</v>
+        <v>0.7907990438541183</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8605580131641016</v>
+        <v>0.8585307686801797</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>857768</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>809319</v>
+        <v>807332</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>909252</v>
+        <v>911963</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2942944623819768</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2776719134491493</v>
+        <v>0.276990284205782</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3119583184025893</v>
+        <v>0.3128883131519708</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>998</v>
@@ -4263,19 +4263,19 @@
         <v>1076613</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1015211</v>
+        <v>1023692</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1132705</v>
+        <v>1132972</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3422932368269344</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3227712233560475</v>
+        <v>0.3254677268507369</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3601267187145408</v>
+        <v>0.3602115577954447</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1799</v>
@@ -4284,19 +4284,19 @@
         <v>1934381</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1860693</v>
+        <v>1866330</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2012370</v>
+        <v>2013530</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3192072433900422</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3070473860152975</v>
+        <v>0.3079776473292895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3320768718290228</v>
+        <v>0.332268222296162</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2056891</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2005407</v>
+        <v>2002696</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2105340</v>
+        <v>2107327</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7057055376180232</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6880416815974109</v>
+        <v>0.6871116868480294</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7223280865508507</v>
+        <v>0.723009715794218</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1916</v>
@@ -4334,19 +4334,19 @@
         <v>2068682</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2012590</v>
+        <v>2012323</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2130084</v>
+        <v>2121603</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6577067631730655</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6398732812854592</v>
+        <v>0.6397884422045553</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6772287766439525</v>
+        <v>0.6745322731492631</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3851</v>
@@ -4355,19 +4355,19 @@
         <v>4125572</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4047583</v>
+        <v>4046423</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4199260</v>
+        <v>4193623</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6807927566099577</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6679231281709773</v>
+        <v>0.6677317777038383</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6929526139847025</v>
+        <v>0.6920223526707105</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>186311</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>168044</v>
+        <v>165527</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>207356</v>
+        <v>206137</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5280328371307299</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4762616164153619</v>
+        <v>0.4691282285643816</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5876763306047097</v>
+        <v>0.5842226672650079</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>193</v>
@@ -4723,19 +4723,19 @@
         <v>189524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171643</v>
+        <v>171615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>206751</v>
+        <v>207305</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5385288071690179</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4877190304534954</v>
+        <v>0.4876390581022977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5874779908208337</v>
+        <v>0.5890524001326177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>367</v>
@@ -4744,19 +4744,19 @@
         <v>375836</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>351314</v>
+        <v>350332</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>401101</v>
+        <v>400838</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5332740501860698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4984796553408978</v>
+        <v>0.4970871428862297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5691232856679949</v>
+        <v>0.568750207854556</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>166529</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>145484</v>
+        <v>146703</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>184796</v>
+        <v>187313</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.47196716286927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4123236693952902</v>
+        <v>0.4157773327349921</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5237383835846381</v>
+        <v>0.5308717714356185</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>166</v>
@@ -4794,19 +4794,19 @@
         <v>162406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>145179</v>
+        <v>144625</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180287</v>
+        <v>180315</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4614711928309821</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4125220091791663</v>
+        <v>0.4109475998673823</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5122809695465049</v>
+        <v>0.5123609418977028</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>323</v>
@@ -4815,19 +4815,19 @@
         <v>328934</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>303669</v>
+        <v>303932</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>353456</v>
+        <v>354438</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4667259498139302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4308767143320051</v>
+        <v>0.431249792145444</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5015203446591022</v>
+        <v>0.5029128571137703</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>197645</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175847</v>
+        <v>178087</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>221775</v>
+        <v>222745</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4008397520828719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3566314614265395</v>
+        <v>0.361174663784078</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4497769110987413</v>
+        <v>0.4517430083516916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>232</v>
@@ -4940,19 +4940,19 @@
         <v>222579</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>201308</v>
+        <v>202154</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>244436</v>
+        <v>243692</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4480976713324831</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4052736486164124</v>
+        <v>0.4069769702320145</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4921010578559536</v>
+        <v>0.4906014068518947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>425</v>
@@ -4961,19 +4961,19 @@
         <v>420224</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>389993</v>
+        <v>387140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>449886</v>
+        <v>450374</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4245556542280951</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.39401266538511</v>
+        <v>0.3911306451245753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4545234219267281</v>
+        <v>0.45501613770472</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>295433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>271303</v>
+        <v>270333</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>317231</v>
+        <v>314991</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5991602479171281</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5502230889012587</v>
+        <v>0.5482569916483092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6433685385734605</v>
+        <v>0.6388253362159224</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>278</v>
@@ -5011,19 +5011,19 @@
         <v>274141</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>252284</v>
+        <v>253028</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>295412</v>
+        <v>294566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5519023286675169</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5078989421440463</v>
+        <v>0.5093985931481053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5947263513835875</v>
+        <v>0.5930230297679856</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>560</v>
@@ -5032,19 +5032,19 @@
         <v>569573</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>539911</v>
+        <v>539423</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>599804</v>
+        <v>602657</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.575444345771905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5454765780732719</v>
+        <v>0.5449838622952798</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.60598733461489</v>
+        <v>0.6088693548754245</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>227284</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>206689</v>
+        <v>203000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>251614</v>
+        <v>249825</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4074213318710759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3705039649964387</v>
+        <v>0.3638901738288786</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4510335248210372</v>
+        <v>0.4478279239971178</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>271</v>
@@ -5157,19 +5157,19 @@
         <v>268944</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>244081</v>
+        <v>243725</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>292222</v>
+        <v>290977</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4692949827764728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4259108143716474</v>
+        <v>0.4252890225179236</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.509914851084748</v>
+        <v>0.5077420163234891</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>487</v>
@@ -5178,19 +5178,19 @@
         <v>496228</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>462974</v>
+        <v>461191</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>528892</v>
+        <v>528138</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.438774514815543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4093711290400747</v>
+        <v>0.4077944842223038</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4676565609057463</v>
+        <v>0.4669907188541224</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>330576</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306246</v>
+        <v>308035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>351171</v>
+        <v>354860</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5925786681289241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5489664751789628</v>
+        <v>0.5521720760028822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6294960350035612</v>
+        <v>0.6361098261711216</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>305</v>
@@ -5228,19 +5228,19 @@
         <v>304136</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>280858</v>
+        <v>282103</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328999</v>
+        <v>329355</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5307050172235271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4900851489152519</v>
+        <v>0.4922579836765109</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5740891856283526</v>
+        <v>0.5747109774820763</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>620</v>
@@ -5249,19 +5249,19 @@
         <v>634712</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>602048</v>
+        <v>602802</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>667966</v>
+        <v>669749</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.561225485184457</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5323434390942536</v>
+        <v>0.5330092811458776</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5906288709599252</v>
+        <v>0.5922055157776961</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>215039</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>192516</v>
+        <v>193617</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>239895</v>
+        <v>238365</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4196939905055965</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3757357019442525</v>
+        <v>0.3778829116512872</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4682049879848113</v>
+        <v>0.4652193767748875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>222</v>
@@ -5374,19 +5374,19 @@
         <v>238626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>213305</v>
+        <v>215091</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>261404</v>
+        <v>262460</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4379393742123776</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.391467841661835</v>
+        <v>0.3947457682009051</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.479742430976101</v>
+        <v>0.4816797044466152</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>417</v>
@@ -5395,19 +5395,19 @@
         <v>453666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>421379</v>
+        <v>417737</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>487347</v>
+        <v>485877</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4290972203007126</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3985593993278746</v>
+        <v>0.3951142577575756</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4609549516658332</v>
+        <v>0.4595643686338229</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>297333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>272477</v>
+        <v>274007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>319856</v>
+        <v>318755</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5803060094944035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5317950120151885</v>
+        <v>0.5347806232251126</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6242642980557473</v>
+        <v>0.6221170883487128</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>285</v>
@@ -5445,19 +5445,19 @@
         <v>306258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>283480</v>
+        <v>282424</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>331579</v>
+        <v>329793</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5620606257876224</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5202575690238987</v>
+        <v>0.5183202955533848</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.608532158338165</v>
+        <v>0.605254231799095</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>553</v>
@@ -5466,19 +5466,19 @@
         <v>603590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>569909</v>
+        <v>571379</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>635877</v>
+        <v>639519</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5709027796992874</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5390450483341667</v>
+        <v>0.540435631366177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6014406006721253</v>
+        <v>0.6048857422424243</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>133038</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113937</v>
+        <v>114874</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>153787</v>
+        <v>152502</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3585921802318087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3071052420356954</v>
+        <v>0.3096324720480541</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4145175716560193</v>
+        <v>0.4110553757944672</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>134</v>
@@ -5591,19 +5591,19 @@
         <v>154676</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134901</v>
+        <v>134025</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>175239</v>
+        <v>174220</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3907214563970463</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3407686387070944</v>
+        <v>0.338555888650893</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4426636585207276</v>
+        <v>0.4400913520792373</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>253</v>
@@ -5612,19 +5612,19 @@
         <v>287714</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>256708</v>
+        <v>263214</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>315920</v>
+        <v>316201</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3751778297870659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3347458911704685</v>
+        <v>0.343228755204008</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4119580513901728</v>
+        <v>0.4123238890412527</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>237964</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>217215</v>
+        <v>218500</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>257065</v>
+        <v>256128</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6414078197681913</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5854824283439801</v>
+        <v>0.5889446242055326</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6928947579643047</v>
+        <v>0.6903675279519459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>211</v>
@@ -5662,19 +5662,19 @@
         <v>241197</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>220634</v>
+        <v>221653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>260972</v>
+        <v>261848</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6092785436029537</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5573363414792719</v>
+        <v>0.5599086479207624</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6592313612929054</v>
+        <v>0.6614441113491065</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>421</v>
@@ -5683,19 +5683,19 @@
         <v>479161</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>450955</v>
+        <v>450674</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>510167</v>
+        <v>503661</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6248221702129342</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5880419486098273</v>
+        <v>0.5876761109587473</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6652541088295314</v>
+        <v>0.656771244795992</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>82370</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67433</v>
+        <v>67400</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97305</v>
+        <v>97292</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.357935606306</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2930257903975303</v>
+        <v>0.2928858776041945</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4228364226914501</v>
+        <v>0.4227807080079305</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -5808,19 +5808,19 @@
         <v>95491</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79578</v>
+        <v>78777</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111157</v>
+        <v>111382</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3447986231911256</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2873402760776456</v>
+        <v>0.2844452633251569</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4013633662781272</v>
+        <v>0.4021760817707301</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>171</v>
@@ -5829,19 +5829,19 @@
         <v>177862</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>155163</v>
+        <v>158199</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>199696</v>
+        <v>200605</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3507605852535167</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.305995887262908</v>
+        <v>0.3119838531030659</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3938192587581351</v>
+        <v>0.3956124883311525</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>147755</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132820</v>
+        <v>132833</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162692</v>
+        <v>162725</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.642064393694</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5771635773085498</v>
+        <v>0.5772192919920694</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7069742096024687</v>
+        <v>0.7071141223958054</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>171</v>
@@ -5879,19 +5879,19 @@
         <v>181457</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>165791</v>
+        <v>165566</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>197370</v>
+        <v>198171</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6552013768088745</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5986366337218728</v>
+        <v>0.5978239182292697</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7126597239223544</v>
+        <v>0.715554736674843</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>315</v>
@@ -5900,19 +5900,19 @@
         <v>329212</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>307378</v>
+        <v>306469</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>351911</v>
+        <v>348875</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6492394147464833</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6061807412418648</v>
+        <v>0.6043875116688474</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6940041127370918</v>
+        <v>0.688016146896934</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>44716</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35783</v>
+        <v>35689</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55792</v>
+        <v>55098</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3040728553656181</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2433304276912278</v>
+        <v>0.242688343806165</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3793873396909542</v>
+        <v>0.374670071567438</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -6025,19 +6025,19 @@
         <v>73832</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58359</v>
+        <v>58735</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89987</v>
+        <v>90567</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3239954405600535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2560969768702087</v>
+        <v>0.2577442760002638</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3948905544821546</v>
+        <v>0.3974352854427233</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>112</v>
@@ -6046,19 +6046,19 @@
         <v>118548</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>99948</v>
+        <v>99908</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138532</v>
+        <v>136952</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3161814309222545</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2665731041194407</v>
+        <v>0.2664681117031542</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3694811405650887</v>
+        <v>0.3652681579634299</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>102341</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>91265</v>
+        <v>91959</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>111274</v>
+        <v>111368</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6959271446343819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6206126603090458</v>
+        <v>0.6253299284325625</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7566695723087717</v>
+        <v>0.7573116561938351</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>112</v>
@@ -6096,19 +6096,19 @@
         <v>154047</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>137892</v>
+        <v>137312</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>169520</v>
+        <v>169144</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6760045594399465</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6051094455178457</v>
+        <v>0.6025647145572769</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7439030231297914</v>
+        <v>0.7422557239997362</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>233</v>
@@ -6117,19 +6117,19 @@
         <v>256388</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>236404</v>
+        <v>237984</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>274988</v>
+        <v>275028</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6838185690777455</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6305188594349113</v>
+        <v>0.6347318420365701</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7334268958805593</v>
+        <v>0.7335318882968453</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1086404</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1034513</v>
+        <v>1034027</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1136373</v>
+        <v>1141847</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4077582905099349</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3882823218108031</v>
+        <v>0.388099892840855</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4265129713493905</v>
+        <v>0.4285677614802746</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1199</v>
@@ -6242,19 +6242,19 @@
         <v>1243673</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1193645</v>
+        <v>1190281</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1296136</v>
+        <v>1294569</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4337412670711646</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4162937794800607</v>
+        <v>0.4151205462784604</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4520381453239011</v>
+        <v>0.4514918782636505</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2232</v>
@@ -6263,19 +6263,19 @@
         <v>2330077</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2254485</v>
+        <v>2245166</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2412837</v>
+        <v>2404502</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4212264967055541</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4075612024512862</v>
+        <v>0.4058764407552984</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4361876694674531</v>
+        <v>0.4346809050436202</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1577929</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1527960</v>
+        <v>1522486</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1629820</v>
+        <v>1630306</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.592241709490065</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5734870286506095</v>
+        <v>0.5714322385197254</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.611717678189197</v>
+        <v>0.611900107159145</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1528</v>
@@ -6313,19 +6313,19 @@
         <v>1623642</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1571179</v>
+        <v>1572746</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1673670</v>
+        <v>1677034</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5662587329288354</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5479618546760989</v>
+        <v>0.5485081217363496</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5837062205199394</v>
+        <v>0.5848794537215398</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3025</v>
@@ -6334,19 +6334,19 @@
         <v>3201571</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3118811</v>
+        <v>3127146</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3277163</v>
+        <v>3286482</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5787735032944459</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5638123305325469</v>
+        <v>0.5653190949563798</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5924387975487139</v>
+        <v>0.5941235592447016</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>250515</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>216827</v>
+        <v>217243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>278256</v>
+        <v>281315</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6612437655620053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5723236351248446</v>
+        <v>0.5734211887269296</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7344663357310844</v>
+        <v>0.7425426081710378</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -6702,19 +6702,19 @@
         <v>249728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>225806</v>
+        <v>227763</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>273022</v>
+        <v>271166</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7275606500843986</v>
+        <v>0.7275606500843985</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6578672581366088</v>
+        <v>0.6635689967998017</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7954256674377891</v>
+        <v>0.790019547845808</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>261</v>
@@ -6723,19 +6723,19 @@
         <v>500243</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>457381</v>
+        <v>460738</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>535167</v>
+        <v>534947</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6927668202463552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6334099022140688</v>
+        <v>0.6380585577419233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7411324969289563</v>
+        <v>0.7408267065189036</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>128339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100598</v>
+        <v>97539</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>162027</v>
+        <v>161611</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3387562344379947</v>
+        <v>0.3387562344379948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2655336642689155</v>
+        <v>0.2574573918289624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4276763648751563</v>
+        <v>0.4265788112730707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -6773,19 +6773,19 @@
         <v>93512</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70218</v>
+        <v>72074</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117434</v>
+        <v>115477</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2724393499156014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2045743325622108</v>
+        <v>0.2099804521541923</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.342132741863391</v>
+        <v>0.3364310032001982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -6794,19 +6794,19 @@
         <v>221851</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186927</v>
+        <v>187147</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264713</v>
+        <v>261356</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3072331797536447</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2588675030710438</v>
+        <v>0.2591732934810965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3665900977859313</v>
+        <v>0.3619414422580768</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>292609</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>265868</v>
+        <v>267496</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>317204</v>
+        <v>319291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6562304945792329</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5962598564253143</v>
+        <v>0.5999110116613794</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7113913109911774</v>
+        <v>0.7160703508365002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>299</v>
@@ -6919,19 +6919,19 @@
         <v>313392</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>289698</v>
+        <v>291105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>334014</v>
+        <v>336507</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6493711205198939</v>
+        <v>0.649371120519894</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6002746108783037</v>
+        <v>0.6031910811605773</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6921003455327724</v>
+        <v>0.6972660332097196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>490</v>
@@ -6940,19 +6940,19 @@
         <v>606001</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>571953</v>
+        <v>569170</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>641592</v>
+        <v>641959</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6526651850940299</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6159951354147889</v>
+        <v>0.61299794809123</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6909973465773381</v>
+        <v>0.6913926580800154</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>153284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128689</v>
+        <v>126602</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>180025</v>
+        <v>178397</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3437695054207671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2886086890088225</v>
+        <v>0.2839296491634999</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4037401435746858</v>
+        <v>0.4000889883386207</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>143</v>
@@ -6990,19 +6990,19 @@
         <v>169217</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>148595</v>
+        <v>146102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>192911</v>
+        <v>191504</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.350628879480106</v>
+        <v>0.3506288794801061</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3078996544672278</v>
+        <v>0.3027339667902805</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3997253891216963</v>
+        <v>0.3968089188394229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>233</v>
@@ -7011,19 +7011,19 @@
         <v>322501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>286910</v>
+        <v>286543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>356549</v>
+        <v>359332</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.34733481490597</v>
+        <v>0.3473348149059701</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3090026534226617</v>
+        <v>0.3086073419199845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3840048645852109</v>
+        <v>0.3870020519087701</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>360161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>336288</v>
+        <v>333324</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>386428</v>
+        <v>383221</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5991458304416447</v>
+        <v>0.5991458304416445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5594317589266348</v>
+        <v>0.5545020571718193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6428418660206097</v>
+        <v>0.6375079121713171</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>542</v>
@@ -7136,19 +7136,19 @@
         <v>383579</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>361684</v>
+        <v>360554</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>402305</v>
+        <v>404088</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.631631958789537</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5955786189894543</v>
+        <v>0.5937176744888953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6624684635614096</v>
+        <v>0.6654047671337754</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>865</v>
@@ -7157,19 +7157,19 @@
         <v>743739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>709201</v>
+        <v>710749</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>776760</v>
+        <v>775839</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6154716677094483</v>
+        <v>0.6154716677094482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5868897877857252</v>
+        <v>0.5881713138911561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6427976406956571</v>
+        <v>0.6420356508770221</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>240963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214696</v>
+        <v>217903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>264836</v>
+        <v>267800</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4008541695583553</v>
+        <v>0.4008541695583552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3571581339793906</v>
+        <v>0.3624920878286831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4405682410733652</v>
+        <v>0.4454979428281808</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>283</v>
@@ -7207,19 +7207,19 @@
         <v>223703</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204977</v>
+        <v>203194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245598</v>
+        <v>246728</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.368368041210463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3375315364385902</v>
+        <v>0.3345952328662246</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4044213810105458</v>
+        <v>0.4062823255111045</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>487</v>
@@ -7228,19 +7228,19 @@
         <v>464666</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>431645</v>
+        <v>432566</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>499204</v>
+        <v>497656</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3845283322905518</v>
+        <v>0.3845283322905517</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3572023593043429</v>
+        <v>0.3579643491229774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4131102122142748</v>
+        <v>0.4118286861088435</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>402386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>375743</v>
+        <v>376726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>425541</v>
+        <v>428307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5932282498931948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5539492832020043</v>
+        <v>0.5553987176133421</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6273655167145696</v>
+        <v>0.63144338673394</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>715</v>
@@ -7353,19 +7353,19 @@
         <v>447851</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>425203</v>
+        <v>428362</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>467701</v>
+        <v>468756</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6205012293929627</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5891225152458385</v>
+        <v>0.5934991911824063</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6480029634130311</v>
+        <v>0.6494653393775031</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1112</v>
@@ -7374,19 +7374,19 @@
         <v>850237</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>816829</v>
+        <v>815523</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>883747</v>
+        <v>886386</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6072880135198424</v>
+        <v>0.6072880135198425</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5834259076200544</v>
+        <v>0.5824934638425174</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.631222766847589</v>
+        <v>0.6331072568422645</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>275913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>252758</v>
+        <v>249992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302556</v>
+        <v>301573</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4067717501068051</v>
+        <v>0.4067717501068052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3726344832854304</v>
+        <v>0.36855661326606</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4460507167979957</v>
+        <v>0.4446012823866576</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -7424,19 +7424,19 @@
         <v>273906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>254056</v>
+        <v>253001</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296554</v>
+        <v>293395</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3794987706070374</v>
+        <v>0.3794987706070372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3519970365869683</v>
+        <v>0.3505346606224969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4108774847541612</v>
+        <v>0.4065008088175934</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>646</v>
@@ -7445,19 +7445,19 @@
         <v>549819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>516309</v>
+        <v>513670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>583227</v>
+        <v>584533</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3927119864801575</v>
+        <v>0.3927119864801576</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3687772331524108</v>
+        <v>0.3668927431577353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4165740923799455</v>
+        <v>0.4175065361574826</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>306109</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>282742</v>
+        <v>283442</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>327807</v>
+        <v>329265</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5158952405844647</v>
+        <v>0.5158952405844646</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4765138229397829</v>
+        <v>0.4776938004131975</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5524632942415036</v>
+        <v>0.5549201921051766</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>566</v>
@@ -7570,19 +7570,19 @@
         <v>334921</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>317120</v>
+        <v>316982</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>354070</v>
+        <v>354884</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5620911767316783</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5322159210993672</v>
+        <v>0.5319835433977317</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5942279094851644</v>
+        <v>0.5955938584801939</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>911</v>
@@ -7591,19 +7591,19 @@
         <v>641030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>608630</v>
+        <v>612690</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>669146</v>
+        <v>669622</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5390416453344933</v>
+        <v>0.5390416453344934</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5117957146238031</v>
+        <v>0.5152105454344043</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5626837098583009</v>
+        <v>0.5630839990182542</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>287246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>265548</v>
+        <v>264090</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>310613</v>
+        <v>309913</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4841047594155353</v>
+        <v>0.4841047594155352</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4475367057584962</v>
+        <v>0.4450798078948233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5234861770602171</v>
+        <v>0.5223061995868025</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>415</v>
@@ -7641,19 +7641,19 @@
         <v>260928</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>241779</v>
+        <v>240965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>278729</v>
+        <v>278867</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4379088232683216</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.405772090514836</v>
+        <v>0.4044061415198062</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4677840789006328</v>
+        <v>0.468016456602268</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>715</v>
@@ -7662,19 +7662,19 @@
         <v>548174</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>520058</v>
+        <v>519582</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>580574</v>
+        <v>576514</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4609583546655066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.437316290141699</v>
+        <v>0.4369160009817457</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4882042853761971</v>
+        <v>0.484789454565596</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>199966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>185070</v>
+        <v>183850</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>219097</v>
+        <v>217660</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.502750282216614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4653003082240868</v>
+        <v>0.4622311257706738</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5508495685182132</v>
+        <v>0.547237657676014</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>423</v>
@@ -7787,19 +7787,19 @@
         <v>226231</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>210998</v>
+        <v>210205</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>241533</v>
+        <v>239984</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5274360925258649</v>
+        <v>0.527436092525865</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4919221667783249</v>
+        <v>0.4900743808998134</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5631131295040922</v>
+        <v>0.5595004221329911</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>698</v>
@@ -7808,19 +7808,19 @@
         <v>426196</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>403565</v>
+        <v>403260</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>449623</v>
+        <v>447881</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5155587532102865</v>
+        <v>0.5155587532102864</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4881819585028647</v>
+        <v>0.4878135729978622</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5438968075735646</v>
+        <v>0.5417904624080059</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>197778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178647</v>
+        <v>180084</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>212674</v>
+        <v>213894</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4972497177833861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4491504314817868</v>
+        <v>0.4527623423239862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.534699691775913</v>
+        <v>0.5377688742293265</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>384</v>
@@ -7858,19 +7858,19 @@
         <v>202694</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>187392</v>
+        <v>188941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>217927</v>
+        <v>218720</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4725639074741351</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4368868704959075</v>
+        <v>0.4404995778670088</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.508077833221675</v>
+        <v>0.5099256191001866</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>665</v>
@@ -7879,19 +7879,19 @@
         <v>400473</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>377046</v>
+        <v>378788</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>423104</v>
+        <v>423409</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4844412467897133</v>
+        <v>0.4844412467897134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4561031924264353</v>
+        <v>0.4582095375919941</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5118180414971353</v>
+        <v>0.5121864270021379</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>127585</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113374</v>
+        <v>114035</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142428</v>
+        <v>142039</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.420571151693251</v>
+        <v>0.4205711516932509</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3737272134036425</v>
+        <v>0.375906242060633</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4695001438746441</v>
+        <v>0.468218610855652</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>343</v>
@@ -8004,19 +8004,19 @@
         <v>188094</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>172010</v>
+        <v>171308</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>203187</v>
+        <v>203446</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4219381409981477</v>
+        <v>0.4219381409981478</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3858580672851193</v>
+        <v>0.384283583528637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4557945928972564</v>
+        <v>0.4563755339797019</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>520</v>
@@ -8025,19 +8025,19 @@
         <v>315679</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>294315</v>
+        <v>293593</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>338078</v>
+        <v>336025</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4213845904103347</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3928662577914741</v>
+        <v>0.3919032829594706</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4512841677169995</v>
+        <v>0.4485433249819177</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>175776</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>160933</v>
+        <v>161322</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>189987</v>
+        <v>189326</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5794288483067491</v>
+        <v>0.579428848306749</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5304998561253558</v>
+        <v>0.5317813891443479</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6262727865963575</v>
+        <v>0.6240937579393669</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>507</v>
@@ -8075,19 +8075,19 @@
         <v>257692</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>242599</v>
+        <v>242340</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>273776</v>
+        <v>274478</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5780618590018524</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5442054071027436</v>
+        <v>0.5436244660202981</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6141419327148807</v>
+        <v>0.6157164164713628</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>777</v>
@@ -8096,19 +8096,19 @@
         <v>433468</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>411069</v>
+        <v>413122</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>454832</v>
+        <v>455554</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5786154095896654</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5487158322830006</v>
+        <v>0.5514566750180824</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.607133742208526</v>
+        <v>0.6080967170405294</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1939330</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1873676</v>
+        <v>1873421</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2000523</v>
+        <v>2002211</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5706211980050084</v>
+        <v>0.5706211980050083</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5513034086912294</v>
+        <v>0.5512283116340027</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5886264517079237</v>
+        <v>0.589123078260266</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3035</v>
@@ -8221,19 +8221,19 @@
         <v>2143796</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2087126</v>
+        <v>2090694</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2188064</v>
+        <v>2195409</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5913189460291317</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5756877819708106</v>
+        <v>0.5766719293248871</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6035292271817231</v>
+        <v>0.6055551472652901</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4857</v>
@@ -8242,19 +8242,19 @@
         <v>4083126</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3993767</v>
+        <v>4000646</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4162089</v>
+        <v>4170474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5813042536817647</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.568582488074257</v>
+        <v>0.5695617549412899</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5925460956111541</v>
+        <v>0.5937397270546808</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1459299</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1398106</v>
+        <v>1396418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1524953</v>
+        <v>1525208</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4293788019949916</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4113735482920763</v>
+        <v>0.4108769217397341</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4486965913087708</v>
+        <v>0.4487716883659974</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2182</v>
@@ -8292,19 +8292,19 @@
         <v>1481652</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1437384</v>
+        <v>1430039</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1538322</v>
+        <v>1534754</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4086810539708682</v>
+        <v>0.4086810539708681</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3964707728182769</v>
+        <v>0.3944448527347099</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4243122180291892</v>
+        <v>0.4233280706751129</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3614</v>
@@ -8313,19 +8313,19 @@
         <v>2940951</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2861988</v>
+        <v>2853603</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3030310</v>
+        <v>3023431</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4186957463182352</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.407453904388846</v>
+        <v>0.4062602729453191</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4314175119257428</v>
+        <v>0.4304382450587099</v>
       </c>
     </row>
     <row r="27">
